--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/works/laevigata/zenbi/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C9787-9293-614C-8616-8E00ED1D6895}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A4B964D-7FDA-4B31-B392-2B256E7767B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="19740" windowHeight="21160" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="19740" windowHeight="21165" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Leadtime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,10 +161,6 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPY 30,000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -238,15 +230,27 @@
     <t>confirmation</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY 30,000</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,18 +563,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -580,8 +638,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,119 +653,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,28 +1066,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="24">
+    <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1106,44 +1095,44 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="24">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1172,7 +1161,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,14 +1170,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1199,17 +1188,17 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1218,14 +1207,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1236,17 +1225,17 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1255,14 +1244,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1279,7 +1268,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1288,14 +1277,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1312,7 +1301,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1321,14 +1310,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1345,7 +1334,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1374,256 +1363,258 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="60" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60" t="s">
+      <c r="M19" s="40"/>
+      <c r="N19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60" t="s">
+      <c r="O19" s="57"/>
+      <c r="P19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60" t="s">
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="56"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="61" t="s">
+      <c r="AA19" s="31"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="60"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AA19" s="61"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="43"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="34"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5"/>
@@ -1652,9 +1643,9 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1664,32 +1655,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
+      <c r="H27" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="14"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1699,32 +1690,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
+      <c r="H28" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
       <c r="AA28" s="19"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -1734,32 +1725,32 @@
         <v>6</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="66">
+      <c r="H29" s="54">
         <v>20180228</v>
       </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1769,37 +1760,37 @@
         <v>6</v>
       </c>
       <c r="G30" s="21"/>
-      <c r="H30" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
+      <c r="H30" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
       <c r="AA30" s="23"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1816,9 +1807,9 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1834,7 +1825,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="5"/>
       <c r="O35" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -1850,7 +1841,58 @@
       <c r="AA35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="59">
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="H30:Z30"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="H27:Z27"/>
+    <mergeCell ref="H28:Z28"/>
+    <mergeCell ref="H29:Z29"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="E12:L12"/>
     <mergeCell ref="S8:Z8"/>
     <mergeCell ref="S9:Z9"/>
@@ -1859,53 +1901,6 @@
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E11:L11"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="H30:Z30"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="H27:Z27"/>
-    <mergeCell ref="H28:Z28"/>
-    <mergeCell ref="H29:Z29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="L23:N23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A4B964D-7FDA-4B31-B392-2B256E7767B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B826D170-F759-42FE-B9F7-AA357B0DD448}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="19740" windowHeight="21165" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +148,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Leadtime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -161,6 +165,10 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY 30,000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -228,18 +236,6 @@
   </si>
   <si>
     <t>confirmation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remarks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPY 30,000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +565,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -587,9 +592,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +622,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,8 +646,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -653,47 +706,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1384,233 +1419,231 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="55" t="s">
+      <c r="M19" s="80"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="56"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="31" t="s">
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AA19" s="31"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA19" s="34"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="49"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="60"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="60"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="62"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="66"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
+      <c r="A23" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="71"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
+      <c r="A24" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="71"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
+      <c r="A25" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="71"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1645,7 +1678,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1655,32 +1688,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
+      <c r="H27" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
       <c r="AA27" s="14"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1690,32 +1723,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -1725,32 +1758,32 @@
         <v>6</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="54">
+      <c r="H29" s="73">
         <v>20180228</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1760,27 +1793,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="21"/>
-      <c r="H30" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
+      <c r="H30" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
       <c r="AA30" s="23"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1790,7 +1823,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1809,7 +1842,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1825,7 +1858,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="5"/>
       <c r="O35" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -1841,35 +1874,7 @@
       <c r="AA35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
+  <mergeCells count="55">
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1877,22 +1882,46 @@
     <mergeCell ref="H27:Z27"/>
     <mergeCell ref="H28:Z28"/>
     <mergeCell ref="H29:Z29"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
     <mergeCell ref="V22:Y22"/>
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:U21"/>
     <mergeCell ref="V21:Y21"/>
     <mergeCell ref="V19:Y19"/>
     <mergeCell ref="Z19:AA19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
     <mergeCell ref="E12:L12"/>
     <mergeCell ref="S8:Z8"/>
     <mergeCell ref="S9:Z9"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B826D170-F759-42FE-B9F7-AA357B0DD448}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D28DC34B-A528-4349-9C8A-BB843A81E68D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DEB2B64D-BAE7-4460-BA99-37406622F7D1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="19740" windowHeight="21165" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="4305" yWindow="540" windowWidth="24075" windowHeight="13050" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -62,49 +62,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0200004 岩手県 盛岡市</t>
-    <rPh sb="8" eb="11">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="0" eb="2">
-      <t>オオドオリ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンチョウメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>telp. 019-600-0000 Fax.019-600-0000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,27 +173,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>営業担当者</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力担当者</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirmation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sales Assistant</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -246,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +280,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +526,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -574,161 +546,161 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,20 +726,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204413</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3C8BD-AE28-4AAF-9788-AD4AD3172819}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2356638-BD25-4B12-9DAB-952A6EBF0053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,8 +761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="699713" cy="666750"/>
+          <a:off x="0" y="45720"/>
+          <a:ext cx="777240" cy="385774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,30 +1073,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1137,35 +1109,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1205,14 +1177,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1223,14 +1195,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1242,14 +1214,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1260,33 +1232,33 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1312,14 +1284,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1345,14 +1317,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1400,250 +1372,250 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="46" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="33" t="s">
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47" t="s">
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="47" t="s">
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="47" t="s">
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="55"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="55"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="77"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA19" s="34"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="45"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="45"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="66"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="68" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="71"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="71"/>
+      <c r="A24" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="63"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="71"/>
+      <c r="A25" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1678,7 +1650,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1688,32 +1660,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
+      <c r="H27" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
       <c r="AA27" s="14"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1723,32 +1695,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
+      <c r="H28" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -1758,32 +1730,32 @@
         <v>6</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="73">
+      <c r="H29" s="85">
         <v>20180228</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1793,27 +1765,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="21"/>
-      <c r="H30" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
+      <c r="H30" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
       <c r="AA30" s="23"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1823,7 +1795,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1842,7 +1814,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1858,7 +1830,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="5"/>
       <c r="O35" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D28DC34B-A528-4349-9C8A-BB843A81E68D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DEB2B64D-BAE7-4460-BA99-37406622F7D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEECB4-1170-40F2-95FD-8DB7BB20593E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="540" windowWidth="24075" windowHeight="13050" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -55,13 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビガータ株式会社</t>
-    <rPh sb="5" eb="9">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cc</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -78,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Please send email to the following address… "bbb@example.com" as CC:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>we are grateful for your kind understanding and cooperation.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unit Price(JPY)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,10 +108,6 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPY 30,000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -197,6 +178,18 @@
   </si>
   <si>
     <t>Sales Assistant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please send email to the following address… "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit Price(IDR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,64 +464,205 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -536,171 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,30 +1042,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D4" s="28" t="s">
-        <v>36</v>
+      <c r="D4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1109,35 +1078,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
+      <c r="A6" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1177,14 +1146,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1195,14 +1164,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1214,14 +1183,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1232,33 +1201,33 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1284,14 +1253,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1317,14 +1286,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1372,256 +1341,250 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="56" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57" t="s">
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34" t="s">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="34" t="s">
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="34" t="s">
+      <c r="AA19" s="65"/>
+    </row>
+    <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="37"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="37"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="50"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA19" s="37"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="55"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="55"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="77"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="63"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="63"/>
+      <c r="A24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="63"/>
+      <c r="A25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1649,153 +1612,153 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13" t="s">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="14"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="14"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="19"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="29">
+        <v>20180228</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="14"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="85">
-        <v>20180228</v>
-      </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="19"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="23"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="25" t="s">
-        <v>7</v>
+      <c r="A32" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
-        <v>37</v>
+      <c r="A34" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1813,40 +1776,79 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="A35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
+      <c r="O35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:U21"/>
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1863,45 +1865,6 @@
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="V24:Y24"/>
     <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEECB4-1170-40F2-95FD-8DB7BB20593E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10ACC3-A84D-487E-A730-3AB97BC7FF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,6 +500,150 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -526,150 +670,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1078,35 +1078,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1146,14 +1146,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1164,14 +1164,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1183,14 +1183,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1201,14 +1201,14 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
@@ -1220,14 +1220,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1253,28 +1253,30 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
@@ -1286,28 +1288,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
@@ -1360,225 +1364,225 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="62" t="s">
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="62" t="s">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="62" t="s">
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="65" t="s">
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="65"/>
+      <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="37"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="37"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="64"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="51"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="35"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="51"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1623,27 +1627,27 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1658,27 +1662,27 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
       <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1693,27 +1697,27 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="29">
+      <c r="H29" s="77">
         <v>20180228</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
       <c r="AA29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1728,27 +1732,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1757,9 +1761,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1776,9 +1778,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1809,30 +1809,23 @@
       <c r="AA35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
+  <mergeCells count="57">
+    <mergeCell ref="H30:Z30"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="H27:Z27"/>
+    <mergeCell ref="H28:Z28"/>
+    <mergeCell ref="H29:Z29"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="L23:N23"/>
     <mergeCell ref="O23:Q23"/>
     <mergeCell ref="R23:U23"/>
     <mergeCell ref="V23:Y23"/>
@@ -1849,22 +1842,31 @@
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R21:U21"/>
-    <mergeCell ref="H30:Z30"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="H27:Z27"/>
-    <mergeCell ref="H28:Z28"/>
-    <mergeCell ref="H29:Z29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="S12:Z12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10ACC3-A84D-487E-A730-3AB97BC7FF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C89CFD-0373-4B3D-B425-CE515B9DF570}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
@@ -436,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,176 +500,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1078,35 +982,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1146,14 +1050,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1164,14 +1068,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1183,14 +1087,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1201,14 +1105,14 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
@@ -1220,14 +1124,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1253,14 +1157,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5" t="s">
@@ -1269,14 +1173,14 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
@@ -1288,14 +1192,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="5" t="s">
@@ -1304,14 +1208,14 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
@@ -1364,225 +1268,225 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="26" t="s">
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="26" t="s">
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29" t="s">
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="29"/>
+      <c r="AA19" s="39"/>
     </row>
     <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="64"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="51"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="51"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="51"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1627,27 +1531,27 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1662,27 +1566,27 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
       <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1697,27 +1601,27 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="77">
+      <c r="H29" s="29">
         <v>20180228</v>
       </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
       <c r="AA29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1732,27 +1636,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1810,6 +1714,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:U21"/>
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1826,47 +1771,6 @@
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="V24:Y24"/>
     <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="S12:Z12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayumi Kumagai\OneDrive - レビガータ株式会社\ドキュメント\販売管理\BaseXls\BaseXls_デモ版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C89CFD-0373-4B3D-B425-CE515B9DF570}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{48F39033-CFF9-4E10-AD9F-5076B76E488D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0F7E1103-FFCE-4A56-B9D6-369ADFA13244}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="2655" yWindow="375" windowWidth="24705" windowHeight="14295" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -55,19 +55,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>レビガータ株式会社</t>
+    <rPh sb="5" eb="9">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0200004 岩手県 盛岡市</t>
+    <rPh sb="8" eb="11">
+      <t>イワテケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Cc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大通三丁目6番12号 開運橋センタービル3階</t>
+    <rPh sb="0" eb="2">
+      <t>オオドオリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンチョウメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイウン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>telp. 019-600-0000 Fax.019-600-0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Quotation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>thank you very much for giving us an opportunity to quote on folloing(s):</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>when you want to order about this quotation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please send email to the following address… "bbb@example.com" as CC:</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -154,42 +203,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>営業担当者</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力担当者</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>confirmation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
-  </si>
-  <si>
-    <t>Cikarang Techno Park Building-3A　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sales</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sales Assistant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please send email to the following address… "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unit Price(IDR)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <t>thank you very much for giving us an opportunity to quote on following(s):</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -197,10 +239,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,14 +316,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,8 +532,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,53 +583,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,20 +634,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149554</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204413</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2356638-BD25-4B12-9DAB-952A6EBF0053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3C8BD-AE28-4AAF-9788-AD4AD3172819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,8 +669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="45720"/>
-          <a:ext cx="777240" cy="385774"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="699713" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,30 +981,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:Z11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D4" s="20" t="s">
-        <v>32</v>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -982,35 +1017,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="A6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1050,14 +1085,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1068,14 +1103,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1087,14 +1122,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1105,33 +1140,33 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1157,30 +1192,28 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
@@ -1192,30 +1225,28 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
@@ -1249,244 +1280,244 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="36" t="s">
+      <c r="A19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="39" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="39"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
+    </row>
+    <row r="21" spans="1:27" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
+      <c r="A23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
+      <c r="A24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="35"/>
+      <c r="A25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1521,7 +1552,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1531,32 +1562,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
+      <c r="H27" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1566,32 +1597,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
+      <c r="H28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1601,32 +1632,32 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="29">
+      <c r="H29" s="36">
         <v>20180228</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1636,36 +1667,38 @@
         <v>6</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
+      <c r="H30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1682,7 +1715,9 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
+      <c r="A35" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1697,7 +1732,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="5"/>
       <c r="O35" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -1713,48 +1748,29 @@
       <c r="AA35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
+  <mergeCells count="55">
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1762,19 +1778,39 @@
     <mergeCell ref="H27:Z27"/>
     <mergeCell ref="H28:Z28"/>
     <mergeCell ref="H29:Z29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;P / &amp;N </oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayumi Kumagai\OneDrive - レビガータ株式会社\ドキュメント\販売管理\BaseXls\BaseXls_デモ版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{48F39033-CFF9-4E10-AD9F-5076B76E488D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0F7E1103-FFCE-4A56-B9D6-369ADFA13244}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4DE45-4368-4060-AA32-B89D1E5D528C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="375" windowWidth="24705" windowHeight="14295" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -471,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,80 +536,89 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1017,35 +1027,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1085,14 +1095,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1103,14 +1113,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1122,14 +1132,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1140,14 +1150,14 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
@@ -1159,14 +1169,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1192,14 +1202,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1225,14 +1235,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1299,223 +1309,223 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="26"/>
       <c r="P19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="23" t="s">
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="40" t="s">
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="45"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="32"/>
     </row>
     <row r="21" spans="1:27" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="45"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="32"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="45"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="39"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="24"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="39"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="23"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="39"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="23"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="8"/>
@@ -1562,27 +1572,27 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1597,27 +1607,27 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
       <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1632,27 +1642,27 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="36">
+      <c r="H29" s="41">
         <v>20180228</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
       <c r="AA29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1667,27 +1677,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1749,28 +1759,26 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1784,26 +1792,28 @@
     <mergeCell ref="T25:W25"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="T24:W24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4DE45-4368-4060-AA32-B89D1E5D528C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D24F3A-0EEB-4ABF-9F05-2C17A8E26F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,23 +536,71 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,53 +620,11 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,7 +998,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:S22"/>
+      <selection activeCell="L20" sqref="L20:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1027,35 +1033,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1095,14 +1101,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1113,14 +1119,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1132,14 +1138,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1150,14 +1156,14 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
@@ -1169,14 +1175,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1202,14 +1208,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1235,14 +1241,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1309,223 +1315,223 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="26"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="26"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="42" t="s">
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="27" t="s">
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="29"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="32"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
     </row>
     <row r="21" spans="1:27" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="24"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="32"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="48"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="32"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="48"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="24"/>
-      <c r="O23" s="26"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="23"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="26"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="26"/>
+      <c r="O24" s="25"/>
       <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="23"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="39"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="26"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="26"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="39"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="8"/>
@@ -1572,27 +1578,27 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1607,27 +1613,27 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1642,27 +1648,27 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="41">
+      <c r="H29" s="36">
         <v>20180228</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="14"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1677,27 +1683,27 @@
         <v>6</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1759,26 +1765,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="H30:Z30"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
@@ -1792,28 +1800,26 @@
     <mergeCell ref="T25:W25"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="T24:W24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayumi Kumagai\OneDrive - レビガータ株式会社\ドキュメント\販売管理\BaseXls\BaseXls_ZENBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D24F3A-0EEB-4ABF-9F05-2C17A8E26F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{2FFEF2D2-3F99-4E4B-9B60-5A3027D544D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="2655" yWindow="375" windowWidth="24705" windowHeight="14295" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -55,68 +55,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビガータ株式会社</t>
-    <rPh sb="5" eb="9">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0200004 岩手県 盛岡市</t>
-    <rPh sb="8" eb="11">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="0" eb="2">
-      <t>オオドオリ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンチョウメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>telp. 019-600-0000 Fax.019-600-0000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Quotation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>when you want to order about this quotation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please send email to the following address… "bbb@example.com" as CC:</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -203,31 +150,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>営業担当者</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力担当者</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirmation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sales Assistant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please send email to the following address… "zmeisales@kaigai.zenbi.co.jp" as CC:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Unit Price(IDR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -239,12 +197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +273,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,27 +290,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,131 +449,125 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,20 +593,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204413</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3C8BD-AE28-4AAF-9788-AD4AD3172819}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2356638-BD25-4B12-9DAB-952A6EBF0053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,8 +628,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="699713" cy="666750"/>
+          <a:off x="0" y="45720"/>
+          <a:ext cx="777240" cy="385774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,30 +940,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="13" max="14" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="3.125" customWidth="1"/>
+    <col min="24" max="27" width="3.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1033,35 +981,35 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="A6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1101,14 +1049,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1119,14 +1067,14 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
@@ -1138,14 +1086,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1156,33 +1104,33 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1208,28 +1156,30 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
@@ -1241,28 +1191,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
@@ -1296,244 +1248,244 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
+    </row>
+    <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="34"/>
+    </row>
+    <row r="21" spans="1:27" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="34"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="45"/>
-    </row>
-    <row r="20" spans="1:27" ht="56.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-    </row>
-    <row r="21" spans="1:27" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
+      <c r="A25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
@@ -1568,7 +1520,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1578,32 +1530,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="12"/>
+      <c r="H27" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
-        <v>25</v>
+      <c r="A28" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1613,32 +1565,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="14"/>
+      <c r="H28" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="24"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
-        <v>26</v>
+      <c r="A29" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1648,73 +1600,71 @@
         <v>6</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="36">
+      <c r="H29" s="45">
         <v>20180228</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="14"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="24"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
+      <c r="A30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="18"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="25"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1731,101 +1681,98 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
+      <c r="O35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="P22:S22"/>
     <mergeCell ref="P23:S23"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="H30:Z30"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="H27:Z27"/>
     <mergeCell ref="H28:Z28"/>
     <mergeCell ref="H29:Z29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:M19"/>
     <mergeCell ref="E12:L12"/>
     <mergeCell ref="S8:Z8"/>
     <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="P19:S19"/>
     <mergeCell ref="A6:AA6"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E11:L11"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C&amp;P / &amp;N </oddFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
